--- a/data/shared/CCS_calc.xlsx
+++ b/data/shared/CCS_calc.xlsx
@@ -15,6 +15,7 @@
     <sheet name="CO2 Capture" sheetId="2" r:id="rId1"/>
     <sheet name="CO2 Compression" sheetId="5" r:id="rId2"/>
     <sheet name="CO2 Cap-Compress" sheetId="4" r:id="rId3"/>
+    <sheet name="bb CO2 storage" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="36">
   <si>
     <t>Heat Demand</t>
   </si>
@@ -55,12 +56,6 @@
     <t>Outflows</t>
   </si>
   <si>
-    <t>Captured CO2</t>
-  </si>
-  <si>
-    <t>CO2__Compressed</t>
-  </si>
-  <si>
     <t>CO2 Compression Efficiency</t>
   </si>
   <si>
@@ -91,12 +86,6 @@
     <t>meta-notes</t>
   </si>
   <si>
-    <t>captured CO2</t>
-  </si>
-  <si>
-    <t>compressed CO2</t>
-  </si>
-  <si>
     <t>electricity</t>
   </si>
   <si>
@@ -116,15 +105,66 @@
   </si>
   <si>
     <t>CONSUMED__electricity</t>
+  </si>
+  <si>
+    <t>CO2__collected</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>% CO2 Collected</t>
+  </si>
+  <si>
+    <t>Losses</t>
+  </si>
+  <si>
+    <t>Ancillary Emissions</t>
+  </si>
+  <si>
+    <t>CO2__compressed</t>
+  </si>
+  <si>
+    <t>carbon and oxygen</t>
+  </si>
+  <si>
+    <t>CO2__stored</t>
+  </si>
+  <si>
+    <t>CO2__emitted</t>
+  </si>
+  <si>
+    <t>CO2__captured</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -166,6 +206,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -186,15 +233,21 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -512,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,143 +584,197 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="D6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="F7" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>26</v>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -676,7 +783,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -688,42 +795,42 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>21</v>
+      <c r="A2" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>22</v>
+      <c r="C2" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -732,18 +839,18 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>21</v>
+      <c r="A3" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
+      <c r="C3" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -752,18 +859,18 @@
         <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>22</v>
+      <c r="A4" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
@@ -776,14 +883,14 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>22</v>
+      <c r="A5" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
@@ -797,36 +904,36 @@
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -836,10 +943,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,145 +962,318 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="F2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="F3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>23</v>
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>26</v>
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/shared/CCS_calc.xlsx
+++ b/data/shared/CCS_calc.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/shared/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E9AA23-C470-7440-BC2F-FAE2AC02282C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="2955" windowWidth="26040" windowHeight="14535" activeTab="2"/>
+    <workbookView xWindow="2380" yWindow="2960" windowWidth="26040" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CO2 Capture" sheetId="2" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="38">
   <si>
     <t>Heat Demand</t>
   </si>
@@ -125,9 +126,6 @@
     <t>CO2__compressed</t>
   </si>
   <si>
-    <t>carbon and oxygen</t>
-  </si>
-  <si>
     <t>CO2__stored</t>
   </si>
   <si>
@@ -135,12 +133,21 @@
   </si>
   <si>
     <t>CO2__captured</t>
+  </si>
+  <si>
+    <t>CONSUMED carbon and oxygen</t>
+  </si>
+  <si>
+    <t>CONSUMED electricity</t>
+  </si>
+  <si>
+    <t>CONSUMED heat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -252,8 +259,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -564,25 +571,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="1"/>
+    <col min="3" max="3" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -611,7 +618,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -634,7 +641,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -642,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
@@ -657,7 +664,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>26</v>
       </c>
@@ -665,7 +672,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>8</v>
@@ -677,7 +684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>26</v>
       </c>
@@ -685,7 +692,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>7</v>
@@ -697,7 +704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
@@ -717,7 +724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>26</v>
       </c>
@@ -737,15 +744,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>25</v>
+      <c r="C8" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>8</v>
@@ -755,15 +762,15 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>24</v>
+      <c r="C9" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>8</v>
@@ -779,21 +786,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -822,9 +829,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -842,15 +849,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -862,7 +869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>31</v>
       </c>
@@ -882,7 +889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>31</v>
       </c>
@@ -902,15 +909,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>25</v>
+      <c r="C6" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>8</v>
@@ -919,15 +926,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>24</v>
+      <c r="C7" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>8</v>
@@ -942,25 +949,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="1"/>
+    <col min="3" max="3" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -989,7 +996,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1012,7 +1019,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -1020,7 +1027,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
@@ -1035,7 +1042,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>26</v>
       </c>
@@ -1055,7 +1062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>26</v>
       </c>
@@ -1063,7 +1070,7 @@
         <v>27</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
@@ -1075,7 +1082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>31</v>
       </c>
@@ -1095,7 +1102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>31</v>
       </c>
@@ -1115,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1132,7 +1139,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
@@ -1155,22 +1162,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -1199,7 +1206,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>31</v>
       </c>
@@ -1207,7 +1214,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -1219,7 +1226,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>31</v>
       </c>
@@ -1227,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -1239,15 +1246,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1259,15 +1266,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
